--- a/data/trans_bre/MCS12_SP_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>46,2%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,21; 15,06</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 20,74</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 3,73</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 105,84</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,31; 75,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,78; 74,35</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,95%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,45; 20,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,97; 15,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,71; 11,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 13,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,48; 90,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,16; 123,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,73; 165,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,89; 101,14</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>181,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,12%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,59; 10,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 15,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 10,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 11,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,35; 441,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,1; 122,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 128,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,84; 112,49</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,97%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,88; 12,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,55; 25,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,4; 19,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 13,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,16; 162,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,88; 104,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,5; 118,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,01; 145,14</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,29%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 17,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 26,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 20,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,73; 18,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; 68,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,46; 274,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 57,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,08; 43,92</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,98%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,63; 14,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,47; 15,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,78; 17,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 8,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,1; 440,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,03; 121,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,37; 188,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,19; 65,54</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,04%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 10,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 9,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,44; 14,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,42; 41,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,94; 85,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 56,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,67; 76,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,55; 170,6</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,43%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 11,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 10,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 7,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,64; 13,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,5; 39,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,6; 35,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 44,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,89; 78,8</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,15%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,75; 9,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,05; 12,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,83; 9,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,03; 16,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,44; 55,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,67; 60,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,06; 54,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,69; 81,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,49</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 15,06</t>
+          <t>1,02; 18,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 20,74</t>
+          <t>1,75; 18,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,73</t>
+          <t>-6,45; 7,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 105,84</t>
+          <t>1,95; 48,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 75,27</t>
+          <t>3,23; 37,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 74,35</t>
+          <t>-17,22; 28,39</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,24</t>
+          <t>12,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>15,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>71,02%</t>
+          <t>63,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>80,37%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,95%</t>
+          <t>32,89%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 20,42</t>
+          <t>6,18; 18,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 15,78</t>
+          <t>8,7; 21,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 11,01</t>
+          <t>2,81; 13,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 13,54</t>
+          <t>3,23; 14,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 90,34</t>
+          <t>10,43; 36,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,16; 123,79</t>
+          <t>31,19; 98,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,73; 165,72</t>
+          <t>11,74; 79,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,89; 101,14</t>
+          <t>10,17; 61,05</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>14,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>14,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>181,27%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>41,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 10,46</t>
+          <t>7,37; 22,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 15,03</t>
+          <t>5,73; 20,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 10,01</t>
+          <t>7,43; 21,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 11,68</t>
+          <t>4,49; 17,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,35; 441,62</t>
+          <t>26,16; 103,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,1; 122,54</t>
+          <t>12,53; 53,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 128,88</t>
+          <t>14,81; 51,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 112,49</t>
+          <t>15,55; 81,55</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,98</t>
+          <t>14,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,63</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>68,81%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>35,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 12,19</t>
+          <t>0,93; 14,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,55; 25,06</t>
+          <t>9,01; 19,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 19,16</t>
+          <t>2,36; 17,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,93</t>
+          <t>1,95; 19,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 162,59</t>
+          <t>2,21; 40,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,88; 104,23</t>
+          <t>14,89; 34,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,5; 118,6</t>
+          <t>5,3; 46,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,01; 145,14</t>
+          <t>5,37; 76,15</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>12,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,83</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,23</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>142,43%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>11,69%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 17,14</t>
+          <t>2,87; 22,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,01; 26,04</t>
+          <t>5,05; 23,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 20,32</t>
+          <t>-4,11; 9,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 18,69</t>
+          <t>1,75; 15,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 68,19</t>
+          <t>5,6; 54,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,46; 274,37</t>
+          <t>13,41; 80,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 57,34</t>
+          <t>-4,72; 11,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 43,92</t>
+          <t>2,27; 23,15</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,31</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>186,78%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>55,34%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>10,4%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 14,67</t>
+          <t>3,58; 20,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 15,97</t>
+          <t>-1,83; 14,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 17,81</t>
+          <t>2,58; 19,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 8,93</t>
+          <t>-3,2; 10,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,1; 440,14</t>
+          <t>9,68; 72,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,03; 121,19</t>
+          <t>-3,41; 34,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,37; 188,64</t>
+          <t>7,15; 68,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 65,54</t>
+          <t>-8,66; 35,52</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,9</t>
+          <t>15,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>30,61%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,43</t>
+          <t>6,79; 17,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 9,47</t>
+          <t>1,88; 13,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,44; 14,38</t>
+          <t>0,08; 11,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,42; 41,28</t>
+          <t>7,64; 29,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,94; 85,88</t>
+          <t>18,21; 56,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 56,86</t>
+          <t>3,61; 27,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,67; 76,3</t>
+          <t>0,16; 23,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,55; 170,6</t>
+          <t>14,37; 59,59</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>28,99%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,13; 11,03</t>
+          <t>1,59; 12,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,87</t>
+          <t>6,2; 15,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 7,73</t>
+          <t>-3,59; 6,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,64; 13,94</t>
+          <t>6,84; 20,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,5; 39,52</t>
+          <t>2,86; 24,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,6; 35,39</t>
+          <t>11,91; 34,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 44,55</t>
+          <t>-6,53; 13,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,89; 78,8</t>
+          <t>15,21; 62,38</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>50,15%</t>
+          <t>27,82%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,75</t>
+          <t>8,16; 13,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,05; 12,6</t>
+          <t>9,37; 14,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,87</t>
+          <t>4,32; 9,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,03; 16,2</t>
+          <t>7,96; 16,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>29,44; 55,32</t>
+          <t>18,61; 31,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,67; 60,05</t>
+          <t>19,74; 32,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>29,06; 54,78</t>
+          <t>8,95; 20,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>33,69; 81,26</t>
+          <t>19,46; 43,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,75</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 18,48</t>
+          <t>2,35; 19,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,7; 26,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 18,38</t>
+          <t>2,89; 19,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 7,92</t>
+          <t>-6,65; 9,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 48,01</t>
+          <t>4,71; 53,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,08; 52,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 37,28</t>
+          <t>5,58; 37,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 28,39</t>
+          <t>-16,74; 32,36</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,13</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,65</t>
+          <t>16,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,49%</t>
+          <t>63,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>36,99%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 18,46</t>
+          <t>6,72; 18,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 21,48</t>
+          <t>9,23; 21,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 13,56</t>
+          <t>2,58; 13,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 14,8</t>
+          <t>4,31; 16,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 36,69</t>
+          <t>11,22; 35,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,19; 98,76</t>
+          <t>32,72; 100,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 79,91</t>
+          <t>10,74; 74,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 61,05</t>
+          <t>13,52; 68,52</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,72</t>
+          <t>13,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,02</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,57</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,14</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>51,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>41,44%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 22,02</t>
+          <t>6,48; 21,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 20,78</t>
+          <t>9,69; 24,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 21,94</t>
+          <t>5,58; 19,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 17,76</t>
+          <t>4,48; 17,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,16; 103,03</t>
+          <t>21,43; 91,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,53; 53,88</t>
+          <t>18,5; 53,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,81; 51,99</t>
+          <t>9,81; 43,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,55; 81,55</t>
+          <t>14,68; 80,41</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,02</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,3</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,95</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>15,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>48,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 14,76</t>
+          <t>1,23; 15,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,01; 19,22</t>
+          <t>3,41; 17,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 17,34</t>
+          <t>2,66; 17,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 19,91</t>
+          <t>2,1; 37,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 40,86</t>
+          <t>2,17; 40,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,89; 34,69</t>
+          <t>4,88; 29,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 46,33</t>
+          <t>5,38; 43,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 76,15</t>
+          <t>4,83; 137,26</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,4</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,32</t>
+          <t>13,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>37,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 22,23</t>
+          <t>2,37; 21,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 23,56</t>
+          <t>4,55; 23,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 9,16</t>
+          <t>-5,23; 7,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 15,83</t>
+          <t>0,93; 14,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 54,29</t>
+          <t>4,79; 52,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 80,58</t>
+          <t>11,06; 73,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 11,22</t>
+          <t>-5,97; 9,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 23,15</t>
+          <t>1,15; 20,28</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,64</t>
+          <t>12,42</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>9,78%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 20,68</t>
+          <t>3,36; 20,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 14,83</t>
+          <t>0,87; 17,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 19,47</t>
+          <t>2,68; 19,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 10,8</t>
+          <t>-3,54; 10,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,68; 72,14</t>
+          <t>8,68; 68,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 34,13</t>
+          <t>1,39; 35,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,15; 68,46</t>
+          <t>6,7; 64,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 35,52</t>
+          <t>-9,87; 34,81</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>13,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,59</t>
+          <t>19,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>38,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>37,78%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 17,77</t>
+          <t>7,57; 18,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 13,05</t>
+          <t>4,03; 15,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 11,31</t>
+          <t>-0,77; 10,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,64; 29,01</t>
+          <t>8,59; 35,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,21; 56,58</t>
+          <t>19,97; 57,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 27,38</t>
+          <t>6,95; 30,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 23,17</t>
+          <t>-1,43; 20,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,37; 59,59</t>
+          <t>15,93; 72,2</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,99</t>
+          <t>22,43</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>59,81%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,59; 12,05</t>
+          <t>1,28; 11,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,2; 15,99</t>
+          <t>6,42; 16,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 6,43</t>
+          <t>-2,56; 7,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,84; 20,97</t>
+          <t>7,67; 45,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,86; 24,47</t>
+          <t>2,4; 23,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,91; 34,77</t>
+          <t>12,08; 34,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 13,21</t>
+          <t>-4,51; 14,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,21; 62,38</t>
+          <t>15,07; 268,56</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,71</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>39,26%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,16; 13,15</t>
+          <t>8,38; 13,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,37; 14,33</t>
+          <t>10,48; 15,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,32; 9,25</t>
+          <t>4,07; 8,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,71</t>
+          <t>9,64; 28,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,61; 31,9</t>
+          <t>18,68; 32,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,74; 32,01</t>
+          <t>20,88; 32,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,95; 20,54</t>
+          <t>8,33; 19,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,46; 43,41</t>
+          <t>23,07; 88,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 19,82</t>
+          <t>2,59; 20,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,7; 26,6</t>
+          <t>10,86; 26,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 19,34</t>
+          <t>2,94; 18,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 9,37</t>
+          <t>-5,66; 9,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 53,24</t>
+          <t>5,99; 56,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,08; 52,43</t>
+          <t>18,29; 51,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 37,51</t>
+          <t>4,64; 35,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 32,36</t>
+          <t>-14,89; 35,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 18,64</t>
+          <t>6,69; 19,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 21,94</t>
+          <t>10,56; 22,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 13,55</t>
+          <t>2,46; 13,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 16,1</t>
+          <t>4,02; 16,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 35,96</t>
+          <t>11,23; 36,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,72; 100,14</t>
+          <t>37,14; 99,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 74,27</t>
+          <t>10,31; 72,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,52; 68,52</t>
+          <t>12,28; 70,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 21,21</t>
+          <t>6,32; 21,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,69; 24,49</t>
+          <t>8,89; 24,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 19,96</t>
+          <t>5,14; 20,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 17,55</t>
+          <t>4,57; 17,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,43; 91,04</t>
+          <t>20,31; 91,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,5; 53,55</t>
+          <t>16,62; 55,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 43,55</t>
+          <t>9,85; 47,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 80,41</t>
+          <t>14,77; 75,65</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 15,9</t>
+          <t>1,0; 15,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 17,48</t>
+          <t>3,85; 17,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 17,23</t>
+          <t>3,12; 17,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 37,73</t>
+          <t>2,57; 36,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 40,87</t>
+          <t>2,25; 41,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 29,32</t>
+          <t>5,55; 28,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 43,4</t>
+          <t>6,48; 42,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 137,26</t>
+          <t>6,99; 131,09</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 21,83</t>
+          <t>2,0; 21,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 23,13</t>
+          <t>3,5; 22,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 7,94</t>
+          <t>-4,53; 7,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 14,56</t>
+          <t>0,79; 14,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 52,19</t>
+          <t>3,7; 49,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,06; 73,45</t>
+          <t>7,37; 73,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 9,71</t>
+          <t>-5,22; 9,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 20,28</t>
+          <t>1,02; 19,96</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,36; 20,58</t>
+          <t>3,33; 21,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 17,47</t>
+          <t>0,23; 17,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 19,5</t>
+          <t>2,05; 18,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 10,69</t>
+          <t>-3,12; 10,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 68,61</t>
+          <t>8,28; 70,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 35,17</t>
+          <t>0,24; 36,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,7; 64,46</t>
+          <t>5,23; 62,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 34,81</t>
+          <t>-8,23; 33,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,57; 18,56</t>
+          <t>8,09; 19,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 15,59</t>
+          <t>4,29; 15,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 10,37</t>
+          <t>-1,17; 10,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,59; 35,35</t>
+          <t>8,78; 38,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,97; 57,98</t>
+          <t>21,44; 60,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,95; 30,06</t>
+          <t>7,14; 29,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 20,27</t>
+          <t>-2,28; 21,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,93; 72,2</t>
+          <t>16,02; 79,08</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,7</t>
+          <t>1,71; 11,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,42; 16,34</t>
+          <t>6,25; 16,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 7,4</t>
+          <t>-2,32; 7,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,67; 45,53</t>
+          <t>7,37; 46,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,4; 23,86</t>
+          <t>3,7; 24,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,08; 34,72</t>
+          <t>11,73; 35,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 14,51</t>
+          <t>-3,97; 14,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,07; 268,56</t>
+          <t>14,11; 309,9</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,38; 13,38</t>
+          <t>8,46; 13,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,49</t>
+          <t>10,51; 15,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,99</t>
+          <t>4,3; 9,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,64; 28,22</t>
+          <t>9,41; 24,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,68; 32,1</t>
+          <t>18,96; 32,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,88; 32,63</t>
+          <t>20,82; 32,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,33; 19,23</t>
+          <t>8,64; 20,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>23,07; 88,87</t>
+          <t>22,65; 74,33</t>
         </is>
       </c>
     </row>
